--- a/July_absenty/July_2025_11_12_TRE_1_absenty.xlsx
+++ b/July_absenty/July_2025_11_12_TRE_1_absenty.xlsx
@@ -8,13 +8,76 @@
   </bookViews>
   <sheets>
     <sheet name="11-12" sheetId="1" r:id="rId1"/>
+    <sheet name="11-12 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hello</author>
+  </authors>
+  <commentList>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FM =&gt; Full Month</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hello</author>
+  </authors>
+  <commentList>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FM =&gt; Full Month</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FM =&gt; Full Month</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Office of DPO (Establishment), Gaya</t>
   </si>
@@ -174,6 +237,9 @@
   <si>
     <t>NPS 10%</t>
   </si>
+  <si>
+    <t>FM</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +310,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -398,10 +471,6 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -454,6 +523,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,11 +827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +847,626 @@
     <col min="9" max="9" width="4.42578125" customWidth="1"/>
     <col min="10" max="11" width="5.28515625" customWidth="1"/>
     <col min="12" max="13" width="4.42578125" customWidth="1"/>
-    <col min="14" max="15" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" s="8" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10">
+        <v>8</v>
+      </c>
+      <c r="I5" s="10">
+        <v>9</v>
+      </c>
+      <c r="J5" s="10">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10">
+        <v>11</v>
+      </c>
+      <c r="L5" s="10">
+        <v>12</v>
+      </c>
+      <c r="M5" s="10">
+        <v>13</v>
+      </c>
+      <c r="N5" s="10">
+        <v>14</v>
+      </c>
+      <c r="O5" s="10">
+        <v>15</v>
+      </c>
+      <c r="P5" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>17</v>
+      </c>
+      <c r="R5" s="10">
+        <v>18</v>
+      </c>
+      <c r="S5" s="10">
+        <v>19</v>
+      </c>
+      <c r="T5" s="10">
+        <v>20</v>
+      </c>
+      <c r="U5" s="10">
+        <v>21</v>
+      </c>
+      <c r="V5" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="15">
+        <v>29281</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45246</v>
+      </c>
+      <c r="F6" s="15">
+        <v>45839</v>
+      </c>
+      <c r="G6" s="19">
+        <v>110168937075</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="13">
+        <v>33949</v>
+      </c>
+      <c r="K6" s="13">
+        <f>J6*55%</f>
+        <v>18671.95</v>
+      </c>
+      <c r="L6" s="13">
+        <f>J6*5%</f>
+        <v>1697.45</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="18">
+        <f>SUM(J6:M6)</f>
+        <v>55318.399999999994</v>
+      </c>
+      <c r="O6" s="13">
+        <f>ROUND((J6+K6)*10%+P6,0)</f>
+        <v>5292</v>
+      </c>
+      <c r="P6" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13">
+        <f>SUM(O6:R6)</f>
+        <v>5322</v>
+      </c>
+      <c r="T6" s="18">
+        <f>ROUND((N6/31)*31-S6+P6,0)</f>
+        <v>50026</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:V2"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V18"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" customWidth="1"/>
     <col min="17" max="17" width="3.5703125" customWidth="1"/>
     <col min="18" max="18" width="4" customWidth="1"/>
@@ -785,606 +1477,626 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="3" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="5" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-    </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="1:22" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>3</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>5</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>6</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>7</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>8</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>9</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>10</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>11</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>12</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>13</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>14</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>15</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>16</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <v>17</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="10">
         <v>18</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="10">
         <v>19</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="10">
         <v>20</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="10">
         <v>21</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="11">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="14" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:22" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>29281</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>45246</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>45839</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>110168937075</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
+        <v>33949</v>
+      </c>
+      <c r="K6" s="13">
+        <f>J6*55%</f>
+        <v>18671.95</v>
+      </c>
+      <c r="L6" s="13">
+        <f>J6*5%</f>
+        <v>1697.45</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="18">
+        <f>SUM(J6:M6)</f>
+        <v>55318.399999999994</v>
+      </c>
+      <c r="O6" s="13">
+        <f>ROUND((J6+K6)*10%+P6,0)</f>
+        <v>5292</v>
+      </c>
+      <c r="P6" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13">
+        <f>SUM(O6:R6)</f>
+        <v>5322</v>
+      </c>
+      <c r="T6" s="18">
+        <f>ROUND((N6/31)*31-S6+P6,0)</f>
+        <v>50026</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15">
+        <v>29281</v>
+      </c>
+      <c r="E7" s="15">
+        <v>45246</v>
+      </c>
+      <c r="F7" s="15">
+        <v>45839</v>
+      </c>
+      <c r="G7" s="19">
+        <v>110168937075</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="13">
         <v>32960</v>
       </c>
-      <c r="K6" s="15">
-        <f>J6*55%</f>
+      <c r="K7" s="13">
+        <f>J7*55%</f>
         <v>18128</v>
       </c>
-      <c r="L6" s="15">
-        <f>J6*5%</f>
+      <c r="L7" s="13">
+        <f>J7*5%</f>
         <v>1648</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M7" s="13">
         <v>1000</v>
       </c>
-      <c r="N6" s="20">
-        <f>SUM(J6:M6)</f>
+      <c r="N7" s="18">
+        <f>SUM(J7:M7)</f>
         <v>53736</v>
       </c>
-      <c r="O6" s="15">
-        <f>(J6+K6)*10%+P6</f>
-        <v>5138.8</v>
-      </c>
-      <c r="P6" s="15">
+      <c r="O7" s="13">
+        <f>ROUND((J7+K7)*10%+P7,0)</f>
+        <v>5139</v>
+      </c>
+      <c r="P7" s="13">
         <v>30</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15">
-        <f>SUM(O6:R6)</f>
-        <v>5168.8</v>
-      </c>
-      <c r="T6" s="20">
-        <f>(N6/31)*U6-S6+P6</f>
-        <v>48597.2</v>
-      </c>
-      <c r="U6" s="15">
-        <v>31</v>
-      </c>
-      <c r="V6" s="15" t="s">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13">
+        <f>SUM(O7:R7)</f>
+        <v>5169</v>
+      </c>
+      <c r="T7" s="18">
+        <f>ROUND((N7/31)*31-S7+P7,0)</f>
+        <v>48597</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="15">
-        <v>32960</v>
-      </c>
-      <c r="K7" s="15">
-        <f>J7*50%</f>
-        <v>16480</v>
-      </c>
-      <c r="L7" s="15">
-        <f>J7*4%</f>
-        <v>1318.4</v>
-      </c>
-      <c r="M7" s="15">
-        <v>1000</v>
-      </c>
-      <c r="N7" s="20">
-        <f>SUM(J7:M7)</f>
-        <v>51758.400000000001</v>
-      </c>
-      <c r="O7" s="15">
-        <f>(J7+K7)*10%+P7</f>
-        <v>4974</v>
-      </c>
-      <c r="P7" s="15">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15">
-        <f>SUM(O7:R7)</f>
-        <v>5004</v>
-      </c>
-      <c r="T7" s="20">
-        <f>(N7/31)*U7-S7+P7</f>
-        <v>46784.4</v>
-      </c>
-      <c r="U7" s="15">
-        <v>31</v>
-      </c>
-      <c r="V7" s="15"/>
-    </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1392,5 +2104,6 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/July_absenty/July_2025_11_12_TRE_1_absenty.xlsx
+++ b/July_absenty/July_2025_11_12_TRE_1_absenty.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Office of DPO (Establishment), Gaya</t>
   </si>
@@ -239,6 +239,73 @@
   </si>
   <si>
     <t>FM</t>
+  </si>
+  <si>
+    <r>
+      <t>Name of School:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Utkramit Madhyamik Vidhyalaya, Salaiyakala</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Block : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fatehpur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">District: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gaya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Month: ………………. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2025</t>
+    </r>
+  </si>
+  <si>
+    <t>Sl</t>
   </si>
 </sst>
 </file>
@@ -326,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -465,11 +532,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -527,6 +631,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,8 +968,7 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" customWidth="1"/>
@@ -908,41 +1035,41 @@
       <c r="U2" s="22"/>
       <c r="V2" s="22"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
+    <row r="3" spans="1:22" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="25"/>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1076,73 +1203,73 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="6" spans="1:22" s="32" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="28">
         <v>29281</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="28">
         <v>45246</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="28">
         <v>45839</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="29">
         <v>110168937075</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="26">
         <v>33949</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="26">
         <f>J6*55%</f>
         <v>18671.95</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="26">
         <f>J6*5%</f>
         <v>1697.45</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="26">
         <v>1000</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="31">
         <f>SUM(J6:M6)</f>
         <v>55318.399999999994</v>
       </c>
-      <c r="O6" s="13">
-        <f>ROUND((J6+K6)*10%+P6,0)</f>
+      <c r="O6" s="26">
+        <f>ROUND((J6+K6)*10%,0)</f>
+        <v>5262</v>
+      </c>
+      <c r="P6" s="26">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26">
+        <f>SUM(O6:R6)</f>
         <v>5292</v>
       </c>
-      <c r="P6" s="13">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13">
-        <f>SUM(O6:R6)</f>
-        <v>5322</v>
-      </c>
-      <c r="T6" s="18">
-        <f>ROUND((N6/31)*31-S6+P6,0)</f>
+      <c r="T6" s="31">
+        <f>ROUND((N6/31)*31-S6,0)</f>
         <v>50026</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1435,10 +1562,14 @@
       <c r="V18" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:V2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:V3"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
